--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -102,13 +102,13 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>07/20/2020</t>
-  </si>
-  <si>
-    <t>08/18/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transaction is successful. </t>
+  </si>
+  <si>
+    <t>07/22/2020</t>
+  </si>
+  <si>
+    <t>08/20/2020</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,16 +549,16 @@
         <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -87,9 +87,6 @@
     <t>To_Date_Value</t>
   </si>
   <si>
-    <t>When valid Bene and Schedule Dates are provided</t>
-  </si>
-  <si>
     <t>BeneName</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>08/20/2020</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -531,34 +531,34 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -102,13 +102,13 @@
     <t xml:space="preserve">Transaction is successful. </t>
   </si>
   <si>
-    <t>07/22/2020</t>
-  </si>
-  <si>
-    <t>08/20/2020</t>
-  </si>
-  <si>
     <t>When valid account no. and Schedule Dates are provided</t>
+  </si>
+  <si>
+    <t>08/28/2020</t>
+  </si>
+  <si>
+    <t>09/26/2020</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -549,10 +549,10 @@
         <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
   <si>
     <t>Case</t>
   </si>
@@ -109,13 +109,160 @@
   </si>
   <si>
     <t>09/26/2020</t>
+  </si>
+  <si>
+    <t>BILAL Ahmad</t>
+  </si>
+  <si>
+    <t>Tax payment</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>KASHIF AHMED</t>
+  </si>
+  <si>
+    <t>daniyal olive</t>
+  </si>
+  <si>
+    <t>MicrofinanceIBFTPSDYIBAN</t>
+  </si>
+  <si>
+    <t>qaseem HBL</t>
+  </si>
+  <si>
+    <t>JZHVVN AZRWR</t>
+  </si>
+  <si>
+    <t>pakistan021</t>
+  </si>
+  <si>
+    <t>khan zaib</t>
+  </si>
+  <si>
+    <t>qaqa</t>
+  </si>
+  <si>
+    <t>Afzaal</t>
+  </si>
+  <si>
+    <t>00476001933901</t>
+  </si>
+  <si>
+    <t>14660017195901</t>
+  </si>
+  <si>
+    <t>07867902397801</t>
+  </si>
+  <si>
+    <t>04037900822003</t>
+  </si>
+  <si>
+    <t>23677000049803</t>
+  </si>
+  <si>
+    <t>23057904586603</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided (Daily)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Weekly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Fortnightly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Monthly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Quarterly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account (Daily)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Weekly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Fortnightly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Monthly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Quarterly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Daily)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Weekly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Fortnightly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Monthly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Quarterly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Fortnightly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Weekly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Daily)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Monthly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Quarterly)</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with HBL IVR_N</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with HBL PSD_Y</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with invalid transaction password</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with invalid purpose of account</t>
+  </si>
+  <si>
+    <t>When valid account no. and from date is less than to date</t>
+  </si>
+  <si>
+    <t>When valid account no. with negative amount</t>
+  </si>
+  <si>
+    <t>When valid account no. with lock transaction password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +296,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,13 +331,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,18 +623,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="44.42578125" style="1" customWidth="1"/>
@@ -479,7 +641,7 @@
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -575,6 +737,1356 @@
       <c r="P2" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I3" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I4" s="8">
+        <v>44142</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I5" s="8">
+        <v>44129</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I6" s="8">
+        <v>44190</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I7" s="8">
+        <v>44255</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I8" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I9" s="8">
+        <v>44150</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I10" s="8">
+        <v>44130</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I11" s="8">
+        <v>44211</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I12" s="8">
+        <v>44280</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I13" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I14" s="8">
+        <v>44142</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I15" s="8">
+        <v>44129</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I16" s="8">
+        <v>44190</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I17" s="8">
+        <v>44255</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I18" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="6">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I19" s="8">
+        <v>44142</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I20" s="8">
+        <v>44129</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I21" s="8">
+        <v>44190</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I22" s="8">
+        <v>44255</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="6">
+        <v>25002</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I23" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I24" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I25" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I26" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I27" s="8">
+        <v>44123</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I28" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="7">
+        <v>44128</v>
+      </c>
+      <c r="I29" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="74">
   <si>
     <t>Case</t>
   </si>
@@ -147,106 +147,100 @@
     <t>23057904586603</t>
   </si>
   <si>
-    <t>When valid account no. and Schedule Dates are provided (Daily)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided(Weekly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided(Fortnightly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided(Monthly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided(Quarterly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided own account (Daily)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided own account(Weekly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided own account(Fortnightly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided own account(Monthly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided own account(Quarterly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT(Daily)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT(Weekly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT(Fortnightly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT(Monthly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT(Quarterly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Fortnightly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Weekly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Daily)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Monthly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Quarterly)</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided with HBL IVR_N</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided with HBL PSD_Y</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided with invalid transaction password</t>
-  </si>
-  <si>
-    <t>When valid account no. and Schedule Dates are provided with invalid purpose of account</t>
-  </si>
-  <si>
-    <t>When valid account no. and from date is less than to date</t>
-  </si>
-  <si>
-    <t>When valid account no. with negative amount</t>
-  </si>
-  <si>
-    <t>When valid account no. with lock transaction password</t>
-  </si>
-  <si>
-    <t>SHAKEE1994</t>
-  </si>
-  <si>
     <t>Basit</t>
   </si>
   <si>
-    <t>kashif</t>
-  </si>
-  <si>
     <t>shakeel</t>
   </si>
   <si>
-    <t>ZUBAIR01</t>
-  </si>
-  <si>
-    <t>PAKISTAN2323</t>
-  </si>
-  <si>
-    <t>SALEEM236</t>
+    <t>When valid account no. and Schedule Dates are provided (Daily) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Weekly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Fortnightly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Monthly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided(Quarterly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Daily) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Weekly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Fortnightly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Monthly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT(Quarterly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Daily) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Weekly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Fortnightly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Monthly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided IBFT via IBAN(Quarterly) schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with invalid purpose of account schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and from date is less than to date schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. with negative amount schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with invalid transaction password schedule_bene_shakee1994</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account (Daily) schedule_bene_kashif</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Weekly) schedule_bene_kashif</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Fortnightly) schedule_bene_kashif</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Monthly) schedule_bene_kashif</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided own account(Quarterly) schedule_bene_kashif</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with HBL PSD_Y schedule_bene_ZUBAIR01</t>
+  </si>
+  <si>
+    <t>When valid account no. and Schedule Dates are provided with HBL IVR_N schedule_bene_pakistan2323</t>
+  </si>
+  <si>
+    <t>When valid account no. with lock transaction password schedule_bene_saleem236</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -307,16 +301,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -599,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="109.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -617,6 +610,7 @@
     <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -668,19 +662,20 @@
       <c r="P1" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="8">
-        <v>14660017195901</v>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
@@ -691,16 +686,16 @@
       <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5">
-        <v>44128</v>
+      <c r="H2" s="6">
+        <v>2</v>
       </c>
       <c r="I2" s="6">
-        <v>44134</v>
+        <v>28</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -717,20 +712,21 @@
       </c>
       <c r="P2" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="8">
-        <v>14660017195901</v>
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="4">
         <v>11</v>
@@ -741,16 +737,16 @@
       <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5">
-        <v>44128</v>
+      <c r="H3" s="6">
+        <v>2</v>
       </c>
       <c r="I3" s="6">
-        <v>44142</v>
+        <v>200</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -768,21 +764,21 @@
       <c r="P3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="8">
-        <v>14660017195901</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>12</v>
@@ -793,16 +789,16 @@
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5">
-        <v>44128</v>
+      <c r="H4" s="6">
+        <v>2</v>
       </c>
       <c r="I4" s="6">
-        <v>44129</v>
+        <v>400</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -820,21 +816,21 @@
       <c r="P4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="8">
-        <v>14660017195901</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="4">
         <v>13</v>
@@ -845,16 +841,16 @@
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5">
-        <v>44128</v>
+      <c r="H5" s="6">
+        <v>2</v>
       </c>
       <c r="I5" s="6">
-        <v>44190</v>
+        <v>800</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -872,21 +868,21 @@
       <c r="P5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="8">
-        <v>14660017195901</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="4">
         <v>14</v>
@@ -897,16 +893,16 @@
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5">
-        <v>44128</v>
+      <c r="H6" s="6">
+        <v>2</v>
       </c>
       <c r="I6" s="6">
-        <v>44255</v>
+        <v>3200</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -924,24 +920,24 @@
       <c r="P6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -949,16 +945,16 @@
       <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5">
-        <v>44128</v>
+      <c r="H7" s="6">
+        <v>2</v>
       </c>
       <c r="I7" s="6">
-        <v>44134</v>
+        <v>28</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -976,24 +972,24 @@
       <c r="P7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1001,16 +997,16 @@
       <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="5">
-        <v>44128</v>
+      <c r="H8" s="6">
+        <v>2</v>
       </c>
       <c r="I8" s="6">
-        <v>44150</v>
+        <v>200</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -1028,24 +1024,24 @@
       <c r="P8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -1053,16 +1049,16 @@
       <c r="G9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="5">
-        <v>44128</v>
+      <c r="H9" s="6">
+        <v>2</v>
       </c>
       <c r="I9" s="6">
-        <v>44130</v>
+        <v>400</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1080,24 +1076,24 @@
       <c r="P9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1105,16 +1101,16 @@
       <c r="G10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="5">
-        <v>44128</v>
+      <c r="H10" s="6">
+        <v>2</v>
       </c>
       <c r="I10" s="6">
-        <v>44211</v>
+        <v>800</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -1132,24 +1128,24 @@
       <c r="P10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
@@ -1157,16 +1153,16 @@
       <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="5">
-        <v>44128</v>
+      <c r="H11" s="6">
+        <v>2</v>
       </c>
       <c r="I11" s="6">
-        <v>44280</v>
+        <v>3200</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -1184,41 +1180,41 @@
       <c r="P11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="5">
-        <v>44128</v>
+      <c r="H12" s="6">
+        <v>2</v>
       </c>
       <c r="I12" s="6">
-        <v>44134</v>
+        <v>28</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1236,41 +1232,41 @@
       <c r="P12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="5">
-        <v>44128</v>
+      <c r="H13" s="6">
+        <v>2</v>
       </c>
       <c r="I13" s="6">
-        <v>44142</v>
+        <v>200</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -1288,41 +1284,41 @@
       <c r="P13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="5">
-        <v>44128</v>
+      <c r="H14" s="6">
+        <v>2</v>
       </c>
       <c r="I14" s="6">
-        <v>44129</v>
+        <v>400</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -1340,41 +1336,41 @@
       <c r="P14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="5">
-        <v>44128</v>
+      <c r="H15" s="6">
+        <v>2</v>
       </c>
       <c r="I15" s="6">
-        <v>44190</v>
+        <v>800</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -1392,41 +1388,41 @@
       <c r="P15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="4"/>
+      <c r="Q15" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="5">
-        <v>44128</v>
+      <c r="H16" s="6">
+        <v>2</v>
       </c>
       <c r="I16" s="6">
-        <v>44255</v>
+        <v>3200</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -1444,41 +1440,41 @@
       <c r="P16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="5">
-        <v>44128</v>
+      <c r="H17" s="6">
+        <v>2</v>
       </c>
       <c r="I17" s="6">
-        <v>44134</v>
+        <v>28</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -1496,41 +1492,41 @@
       <c r="P17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="5">
-        <v>44128</v>
+        <v>22</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
       </c>
       <c r="I18" s="6">
-        <v>44142</v>
+        <v>28</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -1548,41 +1544,41 @@
       <c r="P18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="4">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="5">
-        <v>44128</v>
+        <v>22</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
       </c>
       <c r="I19" s="6">
-        <v>44129</v>
+        <v>28</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -1600,41 +1596,41 @@
       <c r="P19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="5">
-        <v>44128</v>
+        <v>26</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
       </c>
       <c r="I20" s="6">
-        <v>44190</v>
+        <v>200</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -1652,41 +1648,41 @@
       <c r="P20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="5">
-        <v>44128</v>
+        <v>22</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2</v>
       </c>
       <c r="I21" s="6">
-        <v>44255</v>
+        <v>28</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -1704,41 +1700,41 @@
       <c r="P21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4">
-        <v>25002</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="5">
-        <v>44128</v>
+        <v>26</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2</v>
       </c>
       <c r="I22" s="6">
-        <v>44134</v>
+        <v>200</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -1756,41 +1752,41 @@
       <c r="P22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="5">
-        <v>44128</v>
+        <v>27</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2</v>
       </c>
       <c r="I23" s="6">
-        <v>44134</v>
+        <v>400</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -1808,41 +1804,41 @@
       <c r="P23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="8">
-        <v>14660017195901</v>
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E24" s="4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="5">
-        <v>44128</v>
+        <v>28</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
       </c>
       <c r="I24" s="6">
-        <v>44134</v>
+        <v>800</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -1860,41 +1856,41 @@
       <c r="P24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="8">
-        <v>14660017195901</v>
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E25" s="4">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="5">
-        <v>44128</v>
+        <v>29</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2</v>
       </c>
       <c r="I25" s="6">
-        <v>44134</v>
+        <v>3200</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -1912,41 +1908,41 @@
       <c r="P25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="8">
-        <v>14660017195901</v>
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E26" s="4">
-        <v>2</v>
+        <v>25002</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="5">
-        <v>44128</v>
+      <c r="H26" s="6">
+        <v>2</v>
       </c>
       <c r="I26" s="6">
-        <v>44123</v>
+        <v>28</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -1964,41 +1960,41 @@
       <c r="P26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="4"/>
+      <c r="Q26" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="8">
-        <v>14660017195901</v>
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="4">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="5">
-        <v>44128</v>
+      <c r="H27" s="6">
+        <v>2</v>
       </c>
       <c r="I27" s="6">
-        <v>44134</v>
+        <v>28</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -2016,16 +2012,16 @@
       <c r="P27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q27" s="4"/>
+      <c r="Q27" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2041,16 +2037,16 @@
       <c r="G28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="5">
-        <v>44128</v>
+      <c r="H28" s="6">
+        <v>2</v>
       </c>
       <c r="I28" s="6">
-        <v>44134</v>
+        <v>28</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -2068,58 +2064,10 @@
       <c r="P28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="5">
-        <v>44128</v>
-      </c>
-      <c r="I29" s="6">
-        <v>44134</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="76">
   <si>
     <t>Case</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
   </si>
 </sst>
 </file>
@@ -592,28 +598,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="109.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="44.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="59.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="44.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,1453 +627,1513 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
         <v>200</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="4">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6">
-        <v>2</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
         <v>400</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
         <v>800</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="4">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="4">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
         <v>3200</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
         <v>28</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
         <v>200</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
         <v>400</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
         <v>800</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
         <v>3200</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="6">
-        <v>2</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
         <v>28</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="6">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
         <v>200</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="4">
+      <c r="G14" s="4">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="6">
-        <v>2</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6">
         <v>400</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4">
+      <c r="G15" s="4">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="6">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
         <v>800</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="4">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6">
         <v>3200</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
         <v>28</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
         <v>28</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>-2</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="6">
-        <v>2</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" s="6">
         <v>28</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="6">
-        <v>2</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
+      <c r="K20" s="6">
         <v>200</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>10</v>
+      <c r="M20" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <v>15</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="6">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
+        <v>2</v>
+      </c>
+      <c r="K21" s="6">
         <v>28</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="4">
-        <v>16</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="4">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="6">
-        <v>2</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
+        <v>2</v>
+      </c>
+      <c r="K22" s="6">
         <v>200</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="4">
+      <c r="G23" s="4">
         <v>17</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="6">
-        <v>2</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
+        <v>2</v>
+      </c>
+      <c r="K23" s="6">
         <v>400</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="4">
+      <c r="G24" s="4">
         <v>18</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="6">
-        <v>2</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6">
         <v>800</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="4">
+      <c r="G25" s="4">
         <v>19</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="6">
-        <v>2</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
+        <v>2</v>
+      </c>
+      <c r="K25" s="6">
         <v>3200</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="4">
+      <c r="G26" s="4">
         <v>25002</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="6">
-        <v>2</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
+        <v>2</v>
+      </c>
+      <c r="K26" s="6">
         <v>28</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="6">
-        <v>2</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
+        <v>2</v>
+      </c>
+      <c r="K27" s="6">
         <v>28</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="6">
-        <v>2</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
+        <v>2</v>
+      </c>
+      <c r="K28" s="6">
         <v>28</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="L28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R28" s="4"/>
+      <c r="T28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
